--- a/files/samples/CLASS 1-4 PT-2.xlsx
+++ b/files/samples/CLASS 1-4 PT-2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="180" windowWidth="14805" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>GYAN GANGA INTERNATIONAL SCHOOL</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Average</t>
+  </si>
+  <si>
+    <t>AB</t>
   </si>
 </sst>
 </file>
@@ -141,7 +144,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -284,21 +287,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -339,7 +327,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -371,35 +359,32 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -717,7 +702,7 @@
   <dimension ref="A1:R56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -735,18 +720,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
+      <c r="A1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
       <c r="M1" s="8"/>
@@ -757,18 +742,18 @@
       <c r="R1" s="8"/>
     </row>
     <row r="2" spans="1:18" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
@@ -779,18 +764,18 @@
       <c r="R2" s="8"/>
     </row>
     <row r="3" spans="1:18" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
@@ -801,14 +786,14 @@
       <c r="R3" s="8"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -874,13 +859,13 @@
         <v>20</v>
       </c>
       <c r="H7" s="15">
-        <f>C7+D7+E7+F7</f>
-        <v>50</v>
+        <f>C7+D7+E7+F7+G7</f>
+        <v>70</v>
       </c>
       <c r="I7" s="15">
         <v>150</v>
       </c>
-      <c r="J7" s="23" t="s">
+      <c r="J7" s="15" t="s">
         <v>13</v>
       </c>
       <c r="K7" s="7"/>
@@ -915,8 +900,8 @@
         <v>17</v>
       </c>
       <c r="H8" s="15">
-        <f t="shared" ref="H8:H56" si="0">C8+D8+E8+F8</f>
-        <v>38</v>
+        <f>SUMIF(C8:G8,"&lt;&gt;#AB")</f>
+        <v>55</v>
       </c>
       <c r="I8" s="21">
         <v>100</v>
@@ -956,8 +941,8 @@
         <v>18</v>
       </c>
       <c r="H9" s="15">
-        <f t="shared" si="0"/>
-        <v>40</v>
+        <f>SUMIF(C9:G9,"&lt;&gt;#AB")</f>
+        <v>58</v>
       </c>
       <c r="I9" s="13">
         <v>110</v>
@@ -984,21 +969,21 @@
       <c r="C10" s="2">
         <v>16</v>
       </c>
-      <c r="D10" s="2">
-        <v>9</v>
+      <c r="D10" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="E10" s="3">
         <v>5</v>
       </c>
-      <c r="F10" s="2">
-        <v>5</v>
+      <c r="F10" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="G10" s="5">
         <v>15</v>
       </c>
       <c r="H10" s="15">
-        <f t="shared" si="0"/>
-        <v>35</v>
+        <f>SUMIF(C10:G10,"&lt;&gt;#AB")</f>
+        <v>36</v>
       </c>
       <c r="I10" s="13">
         <v>115</v>
@@ -1024,7 +1009,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="5"/>
       <c r="H11" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="H11:H56" si="0">SUMIF(C11:G11,"&lt;&gt;#AB")</f>
         <v>0</v>
       </c>
       <c r="I11" s="13"/>
@@ -1691,7 +1676,7 @@
       <c r="F48" s="11"/>
       <c r="G48" s="12"/>
       <c r="H48" s="15">
-        <f t="shared" si="0"/>
+        <f>SUMIF(C48:G48,"&lt;&gt;#AB")</f>
         <v>0</v>
       </c>
       <c r="I48" s="14"/>
